--- a/model02/TestingParameters.xlsx
+++ b/model02/TestingParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pt/GitHub/ejmmp/model02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0CD2F-6CE1-AF49-81F8-13F27BB116E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889C0DB3-CFC4-3E4B-8D31-7E4BDBD6A45E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="40" windowWidth="25440" windowHeight="15360" xr2:uid="{DA942C23-9149-3B4B-A71A-EB2D043109AF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>cmv.agentNum=100</t>
   </si>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6E2741-DBCC-7C41-B873-617100611EE1}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,7 +537,9 @@
       <c r="K1" s="2">
         <v>4</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="2">
+        <v>5</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -602,27 +604,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -635,13 +637,16 @@
       <c r="K22" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -657,91 +662,100 @@
       <c r="K25" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
